--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.3758261710909</v>
+        <v>251.4486865842408</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.527927662432</v>
+        <v>344.043186117535</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.750525443523</v>
+        <v>311.2081873022244</v>
       </c>
       <c r="AD2" t="n">
-        <v>220375.8261710909</v>
+        <v>251448.6865842408</v>
       </c>
       <c r="AE2" t="n">
-        <v>301527.927662432</v>
+        <v>344043.1861175349</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.77928197895473e-06</v>
+        <v>6.389063699037587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.361111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>272750.525443523</v>
+        <v>311208.1873022244</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.963282652129</v>
+        <v>127.6216588606982</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.351882211569</v>
+        <v>174.6175839233553</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.3842639794933</v>
+        <v>157.9523267910772</v>
       </c>
       <c r="AD3" t="n">
-        <v>106963.282652129</v>
+        <v>127621.6588606982</v>
       </c>
       <c r="AE3" t="n">
-        <v>146351.882211569</v>
+        <v>174617.5839233553</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.788256430131508e-06</v>
+        <v>9.785334686432269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>132384.2639794933</v>
+        <v>157952.3267910772</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.3788085508374</v>
+        <v>153.4746928925368</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.4947701169186</v>
+        <v>209.9908456410643</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.0777253900296</v>
+        <v>189.949614057144</v>
       </c>
       <c r="AD2" t="n">
-        <v>133378.8085508374</v>
+        <v>153474.6928925368</v>
       </c>
       <c r="AE2" t="n">
-        <v>182494.7701169186</v>
+        <v>209990.8456410643</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.122219564613322e-06</v>
+        <v>8.870613780351324e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.091666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>165077.7253900296</v>
+        <v>189949.614057144</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.9712119308621</v>
+        <v>125.1523476185821</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.6262431667753</v>
+        <v>171.2389633435702</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.9187560996754</v>
+        <v>154.8961570175019</v>
       </c>
       <c r="AD3" t="n">
-        <v>104971.2119308621</v>
+        <v>125152.3476185821</v>
       </c>
       <c r="AE3" t="n">
-        <v>143626.2431667753</v>
+        <v>171238.9633435702</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.749273048334143e-06</v>
+        <v>9.956539364669988e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>129918.7560996754</v>
+        <v>154896.1570175019</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.1551617474443</v>
+        <v>150.4159177310184</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.5063255250587</v>
+        <v>205.8056945214406</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.424318317107</v>
+        <v>186.1638878864794</v>
       </c>
       <c r="AD2" t="n">
-        <v>123155.1617474443</v>
+        <v>150415.9177310184</v>
       </c>
       <c r="AE2" t="n">
-        <v>168506.3255250587</v>
+        <v>205805.6945214406</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.978060590909971e-06</v>
+        <v>9.419561865464105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.69861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>152424.318317107</v>
+        <v>186163.8878864794</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.0283635323643</v>
+        <v>134.9363737442884</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.755125795044</v>
+        <v>184.6258995295238</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.6037594034271</v>
+        <v>167.0054628025554</v>
       </c>
       <c r="AD2" t="n">
-        <v>116028.3635323643</v>
+        <v>134936.3737442884</v>
       </c>
       <c r="AE2" t="n">
-        <v>158755.125795044</v>
+        <v>184625.8995295239</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.428672765351026e-06</v>
+        <v>9.889862807655662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.122222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>143603.7594034271</v>
+        <v>167005.4628025554</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.5782076370562</v>
+        <v>170.8155653376656</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.8182820292926</v>
+        <v>233.7173923457771</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.9387828321755</v>
+        <v>211.411732444784</v>
       </c>
       <c r="AD2" t="n">
-        <v>144578.2076370562</v>
+        <v>170815.5653376656</v>
       </c>
       <c r="AE2" t="n">
-        <v>197818.2820292926</v>
+        <v>233717.3923457771</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.436791020359504e-06</v>
+        <v>8.694680863762917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.475000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>178938.7828321756</v>
+        <v>211411.732444784</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.8468375653079</v>
+        <v>167.1129991993192</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.9223215820138</v>
+        <v>228.6513780096045</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.7465772065329</v>
+        <v>206.8292114066583</v>
       </c>
       <c r="AD2" t="n">
-        <v>146846.8375653079</v>
+        <v>167112.9991993192</v>
       </c>
       <c r="AE2" t="n">
-        <v>200922.3215820138</v>
+        <v>228651.3780096045</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.794436489258821e-06</v>
+        <v>8.24873787931194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.331944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>181746.5772065329</v>
+        <v>206829.2114066583</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.3680092580403</v>
+        <v>125.7194222380722</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.1691587752828</v>
+        <v>172.0148598555227</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.409856604494</v>
+        <v>155.5980030553316</v>
       </c>
       <c r="AD3" t="n">
-        <v>105368.0092580403</v>
+        <v>125719.4222380722</v>
       </c>
       <c r="AE3" t="n">
-        <v>144169.1587752828</v>
+        <v>172014.8598555227</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.765378301913413e-06</v>
+        <v>9.919225021355584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.602777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>130409.856604494</v>
+        <v>155598.0030553316</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.5773541916107</v>
+        <v>191.3445292943535</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.5502407621823</v>
+        <v>261.806026505274</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.9286037491647</v>
+        <v>236.819626782753</v>
       </c>
       <c r="AD2" t="n">
-        <v>165577.3541916106</v>
+        <v>191344.5292943536</v>
       </c>
       <c r="AE2" t="n">
-        <v>226550.2407621823</v>
+        <v>261806.0265052739</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.035789096403037e-06</v>
+        <v>8.090386489898229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.159722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>204928.6037491647</v>
+        <v>236819.626782753</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.376294301254</v>
+        <v>125.0047977898837</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.1804947369181</v>
+        <v>171.0370791585061</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.420110677861</v>
+        <v>154.7135403757141</v>
       </c>
       <c r="AD2" t="n">
-        <v>105376.294301254</v>
+        <v>125004.7977898837</v>
       </c>
       <c r="AE2" t="n">
-        <v>144180.4947369182</v>
+        <v>171037.0791585061</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.609443736120122e-06</v>
+        <v>9.934741677042773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="AH2" t="n">
-        <v>130420.110677861</v>
+        <v>154713.5403757141</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.7255574073555</v>
+        <v>124.3540608959851</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.290127810201</v>
+        <v>170.1467122317889</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.6147191209916</v>
+        <v>153.9081488188447</v>
       </c>
       <c r="AD3" t="n">
-        <v>104725.5574073555</v>
+        <v>124354.0608959851</v>
       </c>
       <c r="AE3" t="n">
-        <v>143290.127810201</v>
+        <v>170146.7122317889</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.649560059546195e-06</v>
+        <v>1.000579066674997e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.822222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>129614.7191209916</v>
+        <v>153908.1488188447</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.99776682787</v>
+        <v>133.0021502155211</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.6085296834665</v>
+        <v>181.979409565546</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.8529086049531</v>
+        <v>164.6115501263668</v>
       </c>
       <c r="AD2" t="n">
-        <v>112997.76682787</v>
+        <v>133002.150215521</v>
       </c>
       <c r="AE2" t="n">
-        <v>154608.5296834665</v>
+        <v>181979.409565546</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.411431332552572e-06</v>
+        <v>9.437063722093289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.909722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>139852.9086049531</v>
+        <v>164611.5501263668</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.0078816091659</v>
+        <v>125.012264996817</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.6764162383826</v>
+        <v>171.0472961204622</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.9641407237469</v>
+        <v>154.7227822451607</v>
       </c>
       <c r="AD3" t="n">
-        <v>105007.881609166</v>
+        <v>125012.264996817</v>
       </c>
       <c r="AE3" t="n">
-        <v>143676.4162383826</v>
+        <v>171047.2961204622</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.714605554167989e-06</v>
+        <v>9.965773091658763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.702777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>129964.1407237469</v>
+        <v>154722.7822451607</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>197.1668804539288</v>
+        <v>217.8418206101783</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.7724242258054</v>
+        <v>298.0607894615578</v>
       </c>
       <c r="AC2" t="n">
-        <v>244.0257226857489</v>
+        <v>269.6142860463801</v>
       </c>
       <c r="AD2" t="n">
-        <v>197166.8804539288</v>
+        <v>217841.8206101783</v>
       </c>
       <c r="AE2" t="n">
-        <v>269772.4242258054</v>
+        <v>298060.7894615578</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.079772757842094e-06</v>
+        <v>6.93534329576699e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.005555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>244025.7226857489</v>
+        <v>269614.2860463801</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.3999237633821</v>
+        <v>127.0747744110806</v>
       </c>
       <c r="AB3" t="n">
-        <v>145.5810697263458</v>
+        <v>173.8693124925497</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.6870167560175</v>
+        <v>157.2754693354219</v>
       </c>
       <c r="AD3" t="n">
-        <v>106399.9237633821</v>
+        <v>127074.7744110806</v>
       </c>
       <c r="AE3" t="n">
-        <v>145581.0697263458</v>
+        <v>173869.3124925497</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.781295630571004e-06</v>
+        <v>9.827819408631748e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.533333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>131687.0167560175</v>
+        <v>157275.4693354219</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2046426729363</v>
+        <v>134.3356840492235</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.6280745751756</v>
+        <v>183.8040093881774</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.5842723701562</v>
+        <v>166.2620127027688</v>
       </c>
       <c r="AD2" t="n">
-        <v>115204.6426729363</v>
+        <v>134335.6840492235</v>
       </c>
       <c r="AE2" t="n">
-        <v>157628.0745751756</v>
+        <v>183804.0093881774</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.514885358175805e-06</v>
+        <v>9.94464334294485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.006944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>142584.2723701562</v>
+        <v>166262.0127027688</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.6255346537745</v>
+        <v>138.0437243067061</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.6769340193446</v>
+        <v>188.8775136556534</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.0558371586032</v>
+        <v>170.8513088436664</v>
       </c>
       <c r="AD2" t="n">
-        <v>119625.5346537744</v>
+        <v>138043.7243067061</v>
       </c>
       <c r="AE2" t="n">
-        <v>163676.9340193446</v>
+        <v>188877.5136556534</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.169485039078121e-06</v>
+        <v>9.644606694568401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.452777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>148055.8371586032</v>
+        <v>170851.3088436664</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.4043539250962</v>
+        <v>155.3380887266324</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.0026988925047</v>
+        <v>212.5404260284949</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.0599851737021</v>
+        <v>192.2558660707575</v>
       </c>
       <c r="AD2" t="n">
-        <v>137404.3539250962</v>
+        <v>155338.0887266324</v>
       </c>
       <c r="AE2" t="n">
-        <v>188002.6988925047</v>
+        <v>212540.4260284949</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.733893753105771e-06</v>
+        <v>9.103453237081496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.029166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>170059.9851737021</v>
+        <v>192255.8660707576</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.9488234269223</v>
+        <v>230.3864982267402</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.4740689814582</v>
+        <v>315.2249708086463</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.7558420471779</v>
+        <v>285.1403420157877</v>
       </c>
       <c r="AD2" t="n">
-        <v>196948.8234269223</v>
+        <v>230386.4982267402</v>
       </c>
       <c r="AE2" t="n">
-        <v>269474.0689814583</v>
+        <v>315224.9708086463</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.470070679633753e-06</v>
+        <v>7.157365428893329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.36388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>243755.8420471779</v>
+        <v>285140.3420157877</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.3163503748583</v>
+        <v>127.1368023152328</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.8349650460555</v>
+        <v>173.9541818074887</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.8212420662676</v>
+        <v>157.352238842058</v>
       </c>
       <c r="AD2" t="n">
-        <v>107316.3503748583</v>
+        <v>127136.8023152328</v>
       </c>
       <c r="AE2" t="n">
-        <v>146834.9650460556</v>
+        <v>173954.1818074887</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.578085628878928e-06</v>
+        <v>9.800476406869401e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.830555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>132821.2420662676</v>
+        <v>157352.238842058</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.7679131226966</v>
+        <v>124.5883650630711</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.348080768533</v>
+        <v>170.4672975299662</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.6671411303179</v>
+        <v>154.1981379061083</v>
       </c>
       <c r="AD3" t="n">
-        <v>104767.9131226966</v>
+        <v>124588.3650630711</v>
       </c>
       <c r="AE3" t="n">
-        <v>143348.080768533</v>
+        <v>170467.2975299662</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.689795056401992e-06</v>
+        <v>9.996745464338979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.755555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>129667.1411303179</v>
+        <v>154198.1379061083</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.5425291719741</v>
+        <v>196.2309086346487</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.5025916339441</v>
+        <v>268.4917862905046</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.8855021868497</v>
+        <v>242.8673070376062</v>
       </c>
       <c r="AD2" t="n">
-        <v>165542.529171974</v>
+        <v>196230.9086346487</v>
       </c>
       <c r="AE2" t="n">
-        <v>226502.5916339441</v>
+        <v>268491.7862905046</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.420189444642468e-06</v>
+        <v>7.558031353838249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.658333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>204885.5021868497</v>
+        <v>242867.3070376062</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.88802711044</v>
+        <v>126.4038406552708</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.8806701425042</v>
+        <v>172.9513113283429</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.0534623254405</v>
+        <v>156.4450809139041</v>
       </c>
       <c r="AD3" t="n">
-        <v>105888.02711044</v>
+        <v>126403.8406552708</v>
       </c>
       <c r="AE3" t="n">
-        <v>144880.6701425042</v>
+        <v>172951.3113283429</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.772594527483834e-06</v>
+        <v>9.870493330234836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.568055555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>131053.4623254405</v>
+        <v>156445.0809139041</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.4931886056023</v>
+        <v>310.1500776969426</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.7865169154787</v>
+        <v>424.3610191606984</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.639873897595</v>
+        <v>383.8605990864316</v>
       </c>
       <c r="AD2" t="n">
-        <v>261493.1886056023</v>
+        <v>310150.0776969426</v>
       </c>
       <c r="AE2" t="n">
-        <v>357786.5169154787</v>
+        <v>424361.0191606984</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.671515077534118e-06</v>
+        <v>5.726287285517864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.904166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>323639.873897595</v>
+        <v>383860.5990864317</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.8222036087252</v>
+        <v>136.4934402128632</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.2095369261586</v>
+        <v>186.7563465647513</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.8239249809766</v>
+        <v>168.9325829628427</v>
       </c>
       <c r="AD2" t="n">
-        <v>117822.2036087252</v>
+        <v>136493.4402128632</v>
       </c>
       <c r="AE2" t="n">
-        <v>161209.5369261586</v>
+        <v>186756.3465647514</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.301199610922042e-06</v>
+        <v>9.76710263824358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.277777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>145823.9249809766</v>
+        <v>168932.5829628427</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.9168954812281</v>
+        <v>124.3444239630326</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.5519250041135</v>
+        <v>170.1335265549718</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.8515307581518</v>
+        <v>153.8962215645168</v>
       </c>
       <c r="AD2" t="n">
-        <v>104916.8954812281</v>
+        <v>124344.4239630326</v>
       </c>
       <c r="AE2" t="n">
-        <v>143551.9250041135</v>
+        <v>170133.5265549718</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.582819140168642e-06</v>
+        <v>9.973298969369671e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.911111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>129851.5307581518</v>
+        <v>153896.2215645168</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.3629739943703</v>
+        <v>124.7905024761747</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.1622693053893</v>
+        <v>170.7438708562477</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.4036246559377</v>
+        <v>154.4483154623026</v>
       </c>
       <c r="AD3" t="n">
-        <v>105362.9739943703</v>
+        <v>124790.5024761747</v>
       </c>
       <c r="AE3" t="n">
-        <v>144162.2693053893</v>
+        <v>170743.8708562477</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.58093246834792e-06</v>
+        <v>9.969928567848017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.912500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>130403.6246559377</v>
+        <v>154448.3154623026</v>
       </c>
     </row>
   </sheetData>
